--- a/biology/Médecine/Antoine_Marfan_(médecin)/Antoine_Marfan_(médecin).xlsx
+++ b/biology/Médecine/Antoine_Marfan_(médecin)/Antoine_Marfan_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antoine_Marfan_(m%C3%A9decin)</t>
+          <t>Antoine_Marfan_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard-Jean Antonin Marfan, dit Antoine Marfan, né à Castelnaudary (Aude) le 23 juin 1858 et mort à Paris le 11 février 1942, est un médecin pédiatre français, considéré comme l'un des fondateurs de la pédiatrie en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antoine_Marfan_(m%C3%A9decin)</t>
+          <t>Antoine_Marfan_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Muni de ses diplômes de bachelier es-lettres et de bachelier es-sciences, le jeune Marfan fit part à son père de son désir d’étudier la médecine ; ce dernier, médecin lui-même, tenta de l’en dissuader tant sa vie de médecin de campagne était pénible et peu rémunérée : il aurait bien vu son fils s’orienter vers l’École polytechnique mais finit par donner son assentiment.
 Antoine s’inscrivit donc à l’École de Médecine de Toulouse en 1877 et y passa deux années au cours desquelles il accompagna souvent son père dans ses visites et il parla toujours, avec émotion, de l’enseignement qu’il en avait tiré.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antoine_Marfan_(m%C3%A9decin)</t>
+          <t>Antoine_Marfan_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toute une période de la vie de Marfan fut consacrée aux affections de l’âge adulte ; ses premières recherches ont été consacrées à la tuberculose : au moment où il commença son internat, Robert Koch venait de découvrir le bacille qui porte son nom et son attention fut vivement attirée par cette découverte ; c’est d’ailleurs l’un des aspects de cette maladie qu’il prit pour le sujet de sa thèse. En 1892, il publia une monographie sur la tuberculose pulmonaire qui fut très remarquée.
 Les troubles digestifs et les états de dénutrition des jeunes enfants attirèrent son attention par leur fréquence et leur gravité ; ses travaux sur l’allaitement et les affections des voies digestives de la première enfance ont constitué, pendant de nombreuses années, la référence en la matière.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Antoine_Marfan_(m%C3%A9decin)</t>
+          <t>Antoine_Marfan_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En 1896, Marfan décrit des anomalies de développement chez une jeune fille de 5 ans aux membres et aux doigts particulièrement allongés. Il nomme cette maladie la dolichosténomélie, qui sera appelée par la suite le syndrome de Marfan, maladie héréditaire du tissu conjonctif. Le cas décrit en 1896 correspond en réalité à un syndrome proche, mais toutefois différent.
 Divers autres états médicaux éponymes lui doivent leur nom, parmi lesquels :
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Antoine_Marfan_(m%C3%A9decin)</t>
+          <t>Antoine_Marfan_(médecin)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Troubles et lésions gastriques dans la phtisie pulmonaire, Paris : G. Steinheil, 1887.
 Traité des maladies de l'enfance, publié sous la direction de MM. J. Grancher, J. Comby, A.-B. Marfan, Paris : Masson, 5 volumes, 1897-1898.
